--- a/participant_3_data.xlsx
+++ b/participant_3_data.xlsx
@@ -452,18 +452,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8781</v>
+        <v>3315</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4838</v>
+        <v>9821</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -474,35 +474,35 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6551</v>
+        <v>6117</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3170</v>
+        <v>6541</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6144</v>
+        <v>5724</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
